--- a/20212_소프트웨어프로젝트Ⅱ/AD프로젝트/설계.xlsx
+++ b/20212_소프트웨어프로젝트Ⅱ/AD프로젝트/설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\School\20212_소프트웨어프로젝트Ⅱ\AD프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1751F18-12DF-4223-9CB3-F4AC72B7B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6C8A3-0060-4E28-BE1A-0147C84B298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="3180" windowWidth="14880" windowHeight="11385" activeTab="1" xr2:uid="{93225CCA-63B9-4425-90BD-6E21E3571342}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>블록등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game OVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,7 +1353,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:K7"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1493,10 +1501,16 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
+      <c r="O4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1504,11 +1518,17 @@
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
+      <c r="O5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1516,11 +1536,17 @@
       </c>
       <c r="B6">
         <v>2</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="19"/>
+      <c r="O6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1528,11 +1554,17 @@
       </c>
       <c r="B7">
         <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="19"/>
+      <c r="O7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1668,10 +1700,9 @@
       <c r="O10" s="12">
         <v>8</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1860,6 +1891,10 @@
       <c r="O14" s="12">
         <v>8</v>
       </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1949,7 +1984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>280</v>
       </c>
@@ -1993,7 +2028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>300</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>320</v>
       </c>
@@ -2081,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>340</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>360</v>
       </c>
@@ -2169,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>380</v>
       </c>
@@ -2213,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>400</v>
       </c>
@@ -2257,7 +2292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>420</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>440</v>
       </c>
@@ -2345,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>460</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>480</v>
       </c>
@@ -2433,7 +2468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>500</v>
       </c>
@@ -2476,8 +2511,11 @@
       <c r="O28" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>520</v>
       </c>
@@ -2485,7 +2523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>540</v>
       </c>
@@ -2493,7 +2531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D32" s="12"/>
       <c r="E32" t="s">
         <v>0</v>
@@ -2526,5 +2564,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>